--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28410"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ebaxt/Projects/ardoq-excel-import/src/main/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13920" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Application list" sheetId="1" r:id="rId1"/>
@@ -12,6 +17,9 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -20,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>Application</t>
   </si>
@@ -118,13 +126,13 @@
     <t>CRM::deleteCustomer</t>
   </si>
   <si>
-    <t>CRM::validateCustomer,CRM::getCustomerAddress,CRM::notifyCustomer</t>
-  </si>
-  <si>
     <t>CRM::notifyCustomer</t>
   </si>
   <si>
     <t>CRM::ExternalValidationService</t>
+  </si>
+  <si>
+    <t>CRM::getCustomerAddress</t>
   </si>
 </sst>
 </file>
@@ -189,9 +197,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -203,6 +212,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -531,17 +545,17 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.1640625" customWidth="1"/>
     <col min="6" max="6" width="65.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -561,7 +575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -581,7 +595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -601,7 +615,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -621,7 +635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -641,7 +655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -661,7 +675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -684,30 +698,25 @@
   </sheetData>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.1640625" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -721,45 +730,65 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
+      <c r="C6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>